--- a/第一问结果.xlsx
+++ b/第一问结果.xlsx
@@ -76,10 +76,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,13 +98,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,23 +112,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +137,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +160,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,11 +226,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,50 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,13 +250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,169 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +477,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +500,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,13 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,196 +572,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,15 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2075,13 +2066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="13.75"/>
@@ -2326,7 +2317,7 @@
         <v>-0.0846432714834386</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:5">
+    <row r="18" ht="15" spans="1:14">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2339,25 +2330,43 @@
       <c r="E18">
         <v>-0.160001527118162</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>-0.0752395791943025</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
       <c r="D19" s="1">
         <v>38322</v>
       </c>
       <c r="E19">
         <v>-0.331812846630161</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>-0.227182384760625</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
       <c r="D20" s="1">
         <v>38353</v>
       </c>
       <c r="E20">
         <v>-0.179474982544702</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>-0.35259517913101</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:14">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -2369,9 +2378,15 @@
       <c r="E21">
         <v>-0.0550186920031098</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>-0.250544862979648</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:14">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -2383,9 +2398,15 @@
       <c r="E22">
         <v>-0.319675115462858</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>-0.2273745309718</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:14">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B23">
@@ -2397,9 +2418,15 @@
       <c r="E23">
         <v>-0.387969172645933</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>-0.339078922067603</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:14">
+      <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B24">
@@ -2411,9 +2438,15 @@
       <c r="E24">
         <v>-0.358581547073383</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:5">
-      <c r="A25" s="7" t="s">
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>-0.105925096799528</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:14">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B25">
@@ -2425,9 +2458,15 @@
       <c r="E25">
         <v>-0.340933980466969</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>-0.30945648412027</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:14">
+      <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26">
@@ -2439,9 +2478,15 @@
       <c r="E26">
         <v>-0.293558879151852</v>
       </c>
-    </row>
-    <row r="27" ht="15" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>-0.0120518998444252</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:14">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B27">
@@ -2453,9 +2498,15 @@
       <c r="E27">
         <v>-0.244437604161135</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>-0.335778681223117</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:14">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B28">
@@ -2467,77 +2518,201 @@
       <c r="E28">
         <v>-0.298717274550552</v>
       </c>
-    </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>-0.359558281432253</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:14">
+      <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B29">
         <v>-0.162185144623176</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>-0.325210486737542</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:14">
+      <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B30">
         <v>-0.389160358087887</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>-0.342715641482872</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:14">
+      <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B31">
         <v>0.0421962574706477</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>-0.240068171898623</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:14">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B32">
         <v>-0.442970302476818</v>
       </c>
-    </row>
-    <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>-0.121962481046856</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:14">
+      <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33">
         <v>-0.28448826614028</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>-0.23462409119378</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:14">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B34">
         <v>-0.259050227172023</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="M34">
+        <v>17</v>
+      </c>
+      <c r="N34">
+        <v>-0.0846432714834386</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:14">
+      <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B35">
         <v>-0.7587052456986</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>-0.160001527118162</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:14">
+      <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B36">
         <v>-0.248445200084966</v>
       </c>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>-0.331812846630161</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:14">
+      <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37">
         <v>-0.141861493409167</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>-0.179474982544702</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14">
+      <c r="M38">
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <v>-0.0550186920031098</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14">
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>-0.319675115462858</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14">
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>-0.387969172645933</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14">
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>-0.358581547073383</v>
+      </c>
+    </row>
+    <row r="42" spans="13:14">
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>-0.340933980466969</v>
+      </c>
+    </row>
+    <row r="43" spans="13:14">
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>-0.293558879151852</v>
+      </c>
+    </row>
+    <row r="44" spans="13:14">
+      <c r="M44">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>-0.244437604161135</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14">
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>-0.298717274550552</v>
       </c>
     </row>
   </sheetData>
